--- a/qaLegendBilling/src/test/resources/testData/loginDataExcel.xlsx
+++ b/qaLegendBilling/src/test/resources/testData/loginDataExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POOJA\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POOJA\git\qaLegendBilling\qaLegendBilling\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90C45386-775A-41E2-AA11-5A813538620E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F284AAA8-F8FF-4D7D-BEC5-8E50B9AB3864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1194CE87-9554-4146-8A90-34EEFABD9D06}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" xr2:uid="{1194CE87-9554-4146-8A90-34EEFABD9D06}"/>
   </bookViews>
   <sheets>
     <sheet name="loginData" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>123123</v>
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
